--- a/Invoice_GREEN_VALUE_01.xlsx
+++ b/Invoice_GREEN_VALUE_01.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markellabournaka/Desktop/Enimerwtika simeiwmata kwdikas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/greenvalue/ENHMERWTIKA-SHMEIWMATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB40165-02D3-C94B-AF15-E38422425BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B179C1A3-3CE8-DA4C-A63D-78A0D7F72463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="780" windowWidth="29400" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Energy Production" sheetId="10" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Energy Production'!$B$1:$H$57</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -733,13 +736,10 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -857,9 +857,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -896,6 +893,66 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -907,66 +964,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2619,635 +2616,633 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68704139-F0B3-4D08-AF26-668A3A0C944E}">
-  <dimension ref="B1:M65"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41.6640625" defaultRowHeight="21.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="33.5" style="40" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="19.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="32.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="29" style="4" customWidth="1"/>
-    <col min="12" max="12" width="27.33203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="36.83203125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="41.5" style="5" customWidth="1"/>
-    <col min="15" max="15" width="21.5" style="5" customWidth="1"/>
-    <col min="16" max="16" width="44.83203125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="31" style="5" customWidth="1"/>
-    <col min="18" max="18" width="20.1640625" style="5" customWidth="1"/>
-    <col min="19" max="19" width="55.6640625" style="5" customWidth="1"/>
-    <col min="20" max="20" width="44.83203125" style="5" customWidth="1"/>
-    <col min="21" max="21" width="31" style="5" customWidth="1"/>
-    <col min="22" max="22" width="44.83203125" style="5" customWidth="1"/>
-    <col min="23" max="23" width="31" style="5" customWidth="1"/>
-    <col min="24" max="24" width="41.6640625" style="5" customWidth="1"/>
-    <col min="25" max="16384" width="41.6640625" style="5"/>
+    <col min="1" max="1" width="0.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33.5" style="39" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="29" style="3" customWidth="1"/>
+    <col min="12" max="12" width="27.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="36.83203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="41.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="21.5" style="4" customWidth="1"/>
+    <col min="16" max="16" width="44.83203125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="31" style="4" customWidth="1"/>
+    <col min="18" max="18" width="20.1640625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="55.6640625" style="4" customWidth="1"/>
+    <col min="20" max="20" width="44.83203125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="31" style="4" customWidth="1"/>
+    <col min="22" max="22" width="44.83203125" style="4" customWidth="1"/>
+    <col min="23" max="23" width="31" style="4" customWidth="1"/>
+    <col min="24" max="24" width="41.6640625" style="4" customWidth="1"/>
+    <col min="25" max="16384" width="41.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="159" customHeight="1">
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="2:13" ht="37" customHeight="1">
-      <c r="B2" s="4"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="2:13" s="42" customFormat="1" ht="38" customHeight="1">
-      <c r="B3" s="3" t="s">
+    <row r="1" spans="1:13" ht="159" customHeight="1">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="3"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" ht="37" customHeight="1">
+      <c r="B2" s="3"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" s="10" customFormat="1" ht="38" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-    </row>
-    <row r="4" spans="2:13" s="11" customFormat="1" ht="74.5" customHeight="1">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="2:13" s="2" customFormat="1" ht="47" customHeight="1">
-      <c r="B5" s="3" t="s">
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" s="10" customFormat="1" ht="74.5" customHeight="1">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" ht="47" customHeight="1">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="71" t="s">
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="72"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="2:13" s="11" customFormat="1" ht="60.75" customHeight="1">
-      <c r="B6" s="12"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="73">
+      <c r="H5" s="56"/>
+    </row>
+    <row r="6" spans="1:13" s="10" customFormat="1" ht="60.75" customHeight="1">
+      <c r="B6" s="11"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="57">
         <f>H54</f>
         <v>0</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="2:13" s="11" customFormat="1" ht="60.75" customHeight="1">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="2:13" ht="43" customHeight="1" thickBot="1">
-      <c r="B8" s="18"/>
-      <c r="C8" s="70" t="s">
+      <c r="H6" s="58"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" s="10" customFormat="1" ht="60.75" customHeight="1">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" ht="43" customHeight="1" thickBot="1">
+      <c r="B8" s="17"/>
+      <c r="C8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="2:13" s="20" customFormat="1" ht="53.5" customHeight="1">
-      <c r="C9" s="21" t="s">
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="53.5" customHeight="1">
+      <c r="C9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="22" t="s">
+      <c r="F9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-    </row>
-    <row r="10" spans="2:13" ht="31.75" customHeight="1">
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="29"/>
-    </row>
-    <row r="11" spans="2:13" ht="30" customHeight="1">
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="29"/>
-    </row>
-    <row r="12" spans="2:13" ht="28.5" customHeight="1">
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="29"/>
-    </row>
-    <row r="13" spans="2:13" ht="28.5" customHeight="1">
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="29"/>
-    </row>
-    <row r="14" spans="2:13" ht="28.5" customHeight="1">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="29"/>
-    </row>
-    <row r="15" spans="2:13" ht="28.5" customHeight="1">
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="29"/>
-    </row>
-    <row r="16" spans="2:13" ht="28.5" customHeight="1">
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="29"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+    </row>
+    <row r="10" spans="1:13" ht="31.75" customHeight="1">
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="28"/>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1">
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="28"/>
+    </row>
+    <row r="12" spans="1:13" ht="28.5" customHeight="1">
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="28"/>
+    </row>
+    <row r="13" spans="1:13" ht="28.5" customHeight="1">
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="28"/>
+    </row>
+    <row r="14" spans="1:13" ht="28.5" customHeight="1">
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:13" ht="28.5" customHeight="1">
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="28"/>
+    </row>
+    <row r="16" spans="1:13" ht="28.5" customHeight="1">
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="28"/>
     </row>
     <row r="17" spans="3:8" ht="28.5" customHeight="1">
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="29"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="28"/>
     </row>
     <row r="18" spans="3:8" ht="28.5" customHeight="1">
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="29"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="28"/>
     </row>
     <row r="19" spans="3:8" ht="28.5" customHeight="1">
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="29"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="28"/>
     </row>
     <row r="20" spans="3:8" ht="28.5" customHeight="1">
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="29"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="28"/>
     </row>
     <row r="21" spans="3:8" ht="28.5" customHeight="1">
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="29"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="28"/>
     </row>
     <row r="22" spans="3:8" ht="28.5" customHeight="1">
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="29"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="28"/>
     </row>
     <row r="23" spans="3:8" ht="28.5" customHeight="1">
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="29"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="28"/>
     </row>
     <row r="24" spans="3:8" ht="28.5" customHeight="1">
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="29"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="28"/>
     </row>
     <row r="25" spans="3:8" ht="28.5" customHeight="1">
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="29"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="28"/>
     </row>
     <row r="26" spans="3:8" ht="28.5" customHeight="1">
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="29"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="28"/>
     </row>
     <row r="27" spans="3:8" ht="28.5" customHeight="1">
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="29"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="28"/>
     </row>
     <row r="28" spans="3:8" ht="28.5" customHeight="1">
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="29"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="28"/>
     </row>
     <row r="29" spans="3:8" ht="28.5" customHeight="1">
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="29"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="28"/>
     </row>
     <row r="30" spans="3:8" ht="28.5" customHeight="1">
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="29"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="28"/>
     </row>
     <row r="31" spans="3:8" ht="28.5" customHeight="1">
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="29"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="28"/>
     </row>
     <row r="32" spans="3:8" ht="28.5" customHeight="1">
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="29"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="28"/>
     </row>
     <row r="33" spans="2:9" ht="28.5" customHeight="1">
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="29"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="28"/>
     </row>
     <row r="34" spans="2:9" ht="28.5" customHeight="1">
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="29"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="28"/>
     </row>
     <row r="35" spans="2:9" ht="28.5" customHeight="1">
-      <c r="C35" s="25"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="29"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="28"/>
     </row>
     <row r="36" spans="2:9" ht="28.5" customHeight="1">
-      <c r="C36" s="25"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="29"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="28"/>
     </row>
     <row r="37" spans="2:9" ht="28.5" customHeight="1">
-      <c r="C37" s="25"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="29"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="28"/>
     </row>
     <row r="38" spans="2:9" ht="28.5" customHeight="1">
-      <c r="C38" s="25"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="29"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="28"/>
     </row>
     <row r="39" spans="2:9" ht="28.5" customHeight="1">
-      <c r="C39" s="25"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="29"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="28"/>
     </row>
     <row r="40" spans="2:9" ht="28.5" customHeight="1">
-      <c r="C40" s="25"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="29"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="28"/>
     </row>
     <row r="41" spans="2:9" ht="28.5" customHeight="1" thickBot="1">
-      <c r="C41" s="30"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="28"/>
     </row>
     <row r="42" spans="2:9" ht="28.5" customHeight="1">
-      <c r="C42" s="33"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="29"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="28"/>
     </row>
     <row r="43" spans="2:9" ht="49" customHeight="1" thickBot="1">
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
     </row>
     <row r="44" spans="2:9" ht="31" customHeight="1">
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="61" t="s">
+      <c r="C44" s="70"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="G44" s="62"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="47"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="45"/>
     </row>
     <row r="45" spans="2:9" ht="36" customHeight="1">
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="65"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="64" t="s">
+      <c r="C45" s="61"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="65"/>
-      <c r="H45" s="48">
+      <c r="G45" s="61"/>
+      <c r="H45" s="46">
         <f>D41/1000</f>
         <v>0</v>
       </c>
-      <c r="I45" s="47"/>
+      <c r="I45" s="45"/>
     </row>
     <row r="46" spans="2:9" ht="71.5" customHeight="1" thickBot="1">
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="67"/>
-      <c r="D46" s="45">
+      <c r="C46" s="63"/>
+      <c r="D46" s="43">
         <f>F41*D45</f>
         <v>0</v>
       </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="64" t="s">
+      <c r="E46" s="41"/>
+      <c r="F46" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="G46" s="65"/>
-      <c r="H46" s="49">
+      <c r="G46" s="61"/>
+      <c r="H46" s="47">
         <f>E41</f>
         <v>0</v>
       </c>
-      <c r="I46" s="47"/>
+      <c r="I46" s="45"/>
     </row>
     <row r="47" spans="2:9" ht="30" customHeight="1">
-      <c r="E47" s="43"/>
-      <c r="F47" s="64" t="s">
+      <c r="E47" s="41"/>
+      <c r="F47" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="65"/>
-      <c r="H47" s="49">
+      <c r="G47" s="61"/>
+      <c r="H47" s="47">
         <f>H46*6%</f>
         <v>0</v>
       </c>
-      <c r="I47" s="47"/>
+      <c r="I47" s="45"/>
     </row>
     <row r="48" spans="2:9" ht="29.75" customHeight="1">
-      <c r="E48" s="43"/>
-      <c r="F48" s="64" t="s">
+      <c r="E48" s="41"/>
+      <c r="F48" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="65"/>
-      <c r="H48" s="49">
+      <c r="G48" s="61"/>
+      <c r="H48" s="47">
         <f>-(D46*1.24)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="47"/>
+      <c r="I48" s="45"/>
     </row>
     <row r="49" spans="2:9" ht="30" customHeight="1" thickBot="1">
-      <c r="E49" s="43"/>
-      <c r="F49" s="66" t="s">
+      <c r="E49" s="41"/>
+      <c r="F49" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="G49" s="67"/>
-      <c r="H49" s="50">
+      <c r="G49" s="63"/>
+      <c r="H49" s="48">
         <f>H46+H47+H48</f>
         <v>0</v>
       </c>
-      <c r="I49" s="47"/>
+      <c r="I49" s="45"/>
     </row>
     <row r="50" spans="2:9" ht="37" customHeight="1" thickBot="1">
-      <c r="B50" s="43"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="43"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="41"/>
     </row>
     <row r="51" spans="2:9" ht="36" customHeight="1">
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="61" t="s">
+      <c r="C51" s="70"/>
+      <c r="D51" s="71"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="G51" s="62"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="47"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="45"/>
     </row>
     <row r="52" spans="2:9" ht="25.25" customHeight="1">
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="76"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="64" t="s">
+      <c r="C52" s="67"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="G52" s="65"/>
-      <c r="H52" s="49">
+      <c r="G52" s="61"/>
+      <c r="H52" s="47">
         <f>H46</f>
         <v>0</v>
       </c>
-      <c r="I52" s="47"/>
+      <c r="I52" s="45"/>
     </row>
     <row r="53" spans="2:9" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B53" s="52" t="s">
+      <c r="B53" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="55"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="64" t="s">
+      <c r="C53" s="73"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="G53" s="65"/>
-      <c r="H53" s="49">
+      <c r="G53" s="61"/>
+      <c r="H53" s="47">
         <f>H52*6%</f>
         <v>0</v>
       </c>
-      <c r="I53" s="47"/>
+      <c r="I53" s="45"/>
     </row>
     <row r="54" spans="2:9" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="66" t="s">
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G54" s="67"/>
-      <c r="H54" s="45">
+      <c r="G54" s="63"/>
+      <c r="H54" s="43">
         <f>H52+H53</f>
         <v>0</v>
       </c>
-      <c r="I54" s="47"/>
+      <c r="I54" s="45"/>
     </row>
     <row r="55" spans="2:9" ht="28.75" customHeight="1"/>
     <row r="56" spans="2:9" ht="38.25" customHeight="1">
-      <c r="B56" s="68" t="s">
+      <c r="B56" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="69"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
     </row>
     <row r="57" spans="2:9" ht="39" customHeight="1">
-      <c r="B57" s="69"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
     </row>
     <row r="58" spans="2:9" ht="28.75" customHeight="1"/>
     <row r="60" spans="2:9" ht="28.75" customHeight="1"/>
@@ -3257,6 +3252,16 @@
     <row r="65" ht="28.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="F45:G45"/>
     <mergeCell ref="B56:H57"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="D5:F5"/>
@@ -3271,16 +3276,6 @@
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="F53:G53"/>
     <mergeCell ref="B51:D51"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="F45:G45"/>
   </mergeCells>
   <pageMargins left="0.41666700000000001" right="0.41666700000000001" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
   <pageSetup scale="59" orientation="portrait" r:id="rId1"/>
